--- a/Тест на сайт VK.xlsx
+++ b/Тест на сайт VK.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="123">
   <si>
     <t>passed</t>
   </si>
@@ -526,7 +526,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -689,6 +689,15 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -920,9 +929,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -937,36 +943,6 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1007,6 +983,37 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -1345,7 +1352,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1401,10 +1408,10 @@
   <dimension ref="A1:DT64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane xSplit="11" ySplit="7" topLeftCell="L17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="11" ySplit="7" topLeftCell="L8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="E41" sqref="E41"/>
+      <selection pane="bottomRight" activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1448,7 +1455,7 @@
       <c r="K1" s="10"/>
       <c r="L1" s="15">
         <f>COUNTIF(L$8:L$45,"failed")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M1" s="10"/>
       <c r="N1" s="15">
@@ -1493,7 +1500,7 @@
       <c r="K2" s="10"/>
       <c r="L2" s="16">
         <f>COUNTIF(L$8:L$45,"passed")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M2" s="10"/>
       <c r="N2" s="16">
@@ -1536,7 +1543,9 @@
         <v>7</v>
       </c>
       <c r="K3" s="10"/>
-      <c r="L3" s="21"/>
+      <c r="L3" s="21">
+        <v>43932</v>
+      </c>
       <c r="M3" s="10"/>
       <c r="N3" s="21"/>
       <c r="O3" s="10"/>
@@ -1620,43 +1629,43 @@
     </row>
     <row r="6" spans="1:124" ht="18.75" customHeight="1">
       <c r="A6" s="11"/>
-      <c r="B6" s="46" t="s">
+      <c r="B6" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="44" t="s">
+      <c r="C6" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="47" t="s">
+      <c r="D6" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="46" t="s">
+      <c r="E6" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="46"/>
-      <c r="G6" s="44" t="s">
+      <c r="F6" s="56"/>
+      <c r="G6" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="48" t="s">
+      <c r="H6" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="48" t="s">
+      <c r="I6" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="42"/>
+      <c r="J6" s="64"/>
       <c r="K6" s="8"/>
-      <c r="L6" s="41" t="s">
+      <c r="L6" s="63" t="s">
         <v>21</v>
       </c>
       <c r="M6" s="10"/>
-      <c r="N6" s="41" t="s">
+      <c r="N6" s="63" t="s">
         <v>21</v>
       </c>
       <c r="O6" s="10"/>
-      <c r="P6" s="41"/>
+      <c r="P6" s="63"/>
       <c r="Q6" s="10"/>
-      <c r="R6" s="41"/>
+      <c r="R6" s="63"/>
       <c r="S6" s="10"/>
-      <c r="T6" s="41"/>
+      <c r="T6" s="63"/>
       <c r="U6" s="10"/>
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
@@ -1666,29 +1675,29 @@
     </row>
     <row r="7" spans="1:124" ht="95.25" customHeight="1">
       <c r="A7" s="11"/>
-      <c r="B7" s="46"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="47"/>
+      <c r="B7" s="56"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="57"/>
       <c r="E7" s="23" t="s">
         <v>16</v>
       </c>
       <c r="F7" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="45"/>
-      <c r="H7" s="49"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="43"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="65"/>
       <c r="K7" s="8"/>
-      <c r="L7" s="41"/>
+      <c r="L7" s="63"/>
       <c r="M7" s="10"/>
-      <c r="N7" s="41"/>
+      <c r="N7" s="63"/>
       <c r="O7" s="10"/>
-      <c r="P7" s="41"/>
+      <c r="P7" s="63"/>
       <c r="Q7" s="10"/>
-      <c r="R7" s="41"/>
+      <c r="R7" s="63"/>
       <c r="S7" s="10"/>
-      <c r="T7" s="41"/>
+      <c r="T7" s="63"/>
       <c r="U7" s="10"/>
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
@@ -1701,7 +1710,7 @@
       <c r="B8" s="3">
         <v>1</v>
       </c>
-      <c r="C8" s="40" t="s">
+      <c r="C8" s="39" t="s">
         <v>22</v>
       </c>
       <c r="D8" s="3" t="s">
@@ -1718,7 +1727,9 @@
       <c r="I8" s="20"/>
       <c r="J8" s="19"/>
       <c r="K8" s="9"/>
-      <c r="L8" s="5"/>
+      <c r="L8" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="M8" s="10"/>
       <c r="N8" s="5"/>
       <c r="O8" s="10"/>
@@ -1754,7 +1765,9 @@
       <c r="I9" s="27"/>
       <c r="J9" s="19"/>
       <c r="K9" s="9"/>
-      <c r="L9" s="5"/>
+      <c r="L9" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="M9" s="10"/>
       <c r="N9" s="5"/>
       <c r="O9" s="10"/>
@@ -1790,7 +1803,9 @@
       <c r="I10" s="20"/>
       <c r="J10" s="19"/>
       <c r="K10" s="9"/>
-      <c r="L10" s="5"/>
+      <c r="L10" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="M10" s="10"/>
       <c r="N10" s="5"/>
       <c r="O10" s="10"/>
@@ -1826,119 +1841,121 @@
       <c r="I11" s="31"/>
       <c r="J11" s="30"/>
       <c r="K11" s="9"/>
-      <c r="L11" s="32"/>
-      <c r="M11" s="33"/>
-      <c r="N11" s="34"/>
-      <c r="O11" s="35"/>
-      <c r="P11" s="34"/>
-      <c r="Q11" s="35"/>
-      <c r="R11" s="34"/>
-      <c r="S11" s="35"/>
-      <c r="T11" s="34"/>
-      <c r="U11" s="35"/>
-      <c r="V11" s="34"/>
-      <c r="W11" s="35"/>
-      <c r="X11" s="34"/>
-      <c r="Y11" s="35"/>
-      <c r="Z11" s="34"/>
-      <c r="AA11" s="35"/>
-      <c r="AB11" s="34"/>
-      <c r="AC11" s="35"/>
-      <c r="AD11" s="34"/>
-      <c r="AE11" s="35"/>
-      <c r="AF11" s="34"/>
-      <c r="AG11" s="35"/>
-      <c r="AH11" s="34"/>
-      <c r="AI11" s="35"/>
-      <c r="AJ11" s="34"/>
-      <c r="AK11" s="35"/>
-      <c r="AL11" s="34"/>
-      <c r="AM11" s="35"/>
-      <c r="AN11" s="34"/>
-      <c r="AO11" s="35"/>
-      <c r="AP11" s="34"/>
-      <c r="AQ11" s="35"/>
-      <c r="AR11" s="34"/>
-      <c r="AS11" s="35"/>
-      <c r="AT11" s="34"/>
-      <c r="AU11" s="35"/>
-      <c r="AV11" s="34"/>
-      <c r="AW11" s="35"/>
-      <c r="AX11" s="34"/>
-      <c r="AY11" s="35"/>
-      <c r="AZ11" s="34"/>
-      <c r="BA11" s="35"/>
-      <c r="BB11" s="34"/>
-      <c r="BC11" s="35"/>
-      <c r="BD11" s="34"/>
-      <c r="BE11" s="35"/>
-      <c r="BF11" s="34"/>
-      <c r="BG11" s="35"/>
-      <c r="BH11" s="34"/>
-      <c r="BI11" s="35"/>
-      <c r="BJ11" s="34"/>
-      <c r="BK11" s="35"/>
-      <c r="BL11" s="34"/>
-      <c r="BM11" s="35"/>
-      <c r="BN11" s="34"/>
-      <c r="BO11" s="35"/>
-      <c r="BP11" s="34"/>
-      <c r="BQ11" s="35"/>
-      <c r="BR11" s="34"/>
-      <c r="BS11" s="35"/>
-      <c r="BT11" s="34"/>
-      <c r="BU11" s="35"/>
-      <c r="BV11" s="34"/>
-      <c r="BW11" s="35"/>
-      <c r="BX11" s="34"/>
-      <c r="BY11" s="35"/>
-      <c r="BZ11" s="36"/>
-      <c r="CA11" s="35"/>
-      <c r="CB11" s="34"/>
-      <c r="CC11" s="35"/>
-      <c r="CD11" s="37"/>
-      <c r="CE11" s="35"/>
-      <c r="CF11" s="34"/>
-      <c r="CG11" s="35"/>
-      <c r="CH11" s="36"/>
-      <c r="CI11" s="35"/>
-      <c r="CJ11" s="34"/>
-      <c r="CK11" s="35"/>
-      <c r="CL11" s="34"/>
-      <c r="CM11" s="35"/>
-      <c r="CN11" s="34"/>
-      <c r="CO11" s="35"/>
-      <c r="CP11" s="34"/>
-      <c r="CQ11" s="35"/>
-      <c r="CR11" s="34"/>
-      <c r="CS11" s="35"/>
-      <c r="CT11" s="34"/>
-      <c r="CU11" s="35"/>
-      <c r="CV11" s="34"/>
-      <c r="CW11" s="35"/>
-      <c r="CX11" s="34"/>
-      <c r="CY11" s="33"/>
-      <c r="CZ11" s="34"/>
-      <c r="DA11" s="33"/>
-      <c r="DB11" s="34"/>
-      <c r="DC11" s="33"/>
-      <c r="DD11" s="34"/>
-      <c r="DE11" s="33"/>
-      <c r="DF11" s="34"/>
-      <c r="DG11" s="33"/>
-      <c r="DH11" s="34"/>
-      <c r="DI11" s="33"/>
-      <c r="DJ11" s="34"/>
-      <c r="DK11" s="34"/>
-      <c r="DL11" s="34"/>
-      <c r="DM11" s="34"/>
-      <c r="DN11" s="38"/>
-      <c r="DO11" s="34"/>
-      <c r="DP11" s="39"/>
-      <c r="DQ11" s="39"/>
-      <c r="DR11" s="39"/>
-      <c r="DS11" s="39"/>
-      <c r="DT11" s="39"/>
+      <c r="L11" s="66" t="s">
+        <v>1</v>
+      </c>
+      <c r="M11" s="32"/>
+      <c r="N11" s="33"/>
+      <c r="O11" s="34"/>
+      <c r="P11" s="33"/>
+      <c r="Q11" s="34"/>
+      <c r="R11" s="33"/>
+      <c r="S11" s="34"/>
+      <c r="T11" s="33"/>
+      <c r="U11" s="34"/>
+      <c r="V11" s="33"/>
+      <c r="W11" s="34"/>
+      <c r="X11" s="33"/>
+      <c r="Y11" s="34"/>
+      <c r="Z11" s="33"/>
+      <c r="AA11" s="34"/>
+      <c r="AB11" s="33"/>
+      <c r="AC11" s="34"/>
+      <c r="AD11" s="33"/>
+      <c r="AE11" s="34"/>
+      <c r="AF11" s="33"/>
+      <c r="AG11" s="34"/>
+      <c r="AH11" s="33"/>
+      <c r="AI11" s="34"/>
+      <c r="AJ11" s="33"/>
+      <c r="AK11" s="34"/>
+      <c r="AL11" s="33"/>
+      <c r="AM11" s="34"/>
+      <c r="AN11" s="33"/>
+      <c r="AO11" s="34"/>
+      <c r="AP11" s="33"/>
+      <c r="AQ11" s="34"/>
+      <c r="AR11" s="33"/>
+      <c r="AS11" s="34"/>
+      <c r="AT11" s="33"/>
+      <c r="AU11" s="34"/>
+      <c r="AV11" s="33"/>
+      <c r="AW11" s="34"/>
+      <c r="AX11" s="33"/>
+      <c r="AY11" s="34"/>
+      <c r="AZ11" s="33"/>
+      <c r="BA11" s="34"/>
+      <c r="BB11" s="33"/>
+      <c r="BC11" s="34"/>
+      <c r="BD11" s="33"/>
+      <c r="BE11" s="34"/>
+      <c r="BF11" s="33"/>
+      <c r="BG11" s="34"/>
+      <c r="BH11" s="33"/>
+      <c r="BI11" s="34"/>
+      <c r="BJ11" s="33"/>
+      <c r="BK11" s="34"/>
+      <c r="BL11" s="33"/>
+      <c r="BM11" s="34"/>
+      <c r="BN11" s="33"/>
+      <c r="BO11" s="34"/>
+      <c r="BP11" s="33"/>
+      <c r="BQ11" s="34"/>
+      <c r="BR11" s="33"/>
+      <c r="BS11" s="34"/>
+      <c r="BT11" s="33"/>
+      <c r="BU11" s="34"/>
+      <c r="BV11" s="33"/>
+      <c r="BW11" s="34"/>
+      <c r="BX11" s="33"/>
+      <c r="BY11" s="34"/>
+      <c r="BZ11" s="35"/>
+      <c r="CA11" s="34"/>
+      <c r="CB11" s="33"/>
+      <c r="CC11" s="34"/>
+      <c r="CD11" s="36"/>
+      <c r="CE11" s="34"/>
+      <c r="CF11" s="33"/>
+      <c r="CG11" s="34"/>
+      <c r="CH11" s="35"/>
+      <c r="CI11" s="34"/>
+      <c r="CJ11" s="33"/>
+      <c r="CK11" s="34"/>
+      <c r="CL11" s="33"/>
+      <c r="CM11" s="34"/>
+      <c r="CN11" s="33"/>
+      <c r="CO11" s="34"/>
+      <c r="CP11" s="33"/>
+      <c r="CQ11" s="34"/>
+      <c r="CR11" s="33"/>
+      <c r="CS11" s="34"/>
+      <c r="CT11" s="33"/>
+      <c r="CU11" s="34"/>
+      <c r="CV11" s="33"/>
+      <c r="CW11" s="34"/>
+      <c r="CX11" s="33"/>
+      <c r="CY11" s="32"/>
+      <c r="CZ11" s="33"/>
+      <c r="DA11" s="32"/>
+      <c r="DB11" s="33"/>
+      <c r="DC11" s="32"/>
+      <c r="DD11" s="33"/>
+      <c r="DE11" s="32"/>
+      <c r="DF11" s="33"/>
+      <c r="DG11" s="32"/>
+      <c r="DH11" s="33"/>
+      <c r="DI11" s="32"/>
+      <c r="DJ11" s="33"/>
+      <c r="DK11" s="33"/>
+      <c r="DL11" s="33"/>
+      <c r="DM11" s="33"/>
+      <c r="DN11" s="37"/>
+      <c r="DO11" s="33"/>
+      <c r="DP11" s="38"/>
+      <c r="DQ11" s="38"/>
+      <c r="DR11" s="38"/>
+      <c r="DS11" s="38"/>
+      <c r="DT11" s="38"/>
     </row>
     <row r="12" spans="1:124" ht="69.75" customHeight="1">
       <c r="A12" s="11"/>
@@ -1981,7 +1998,7 @@
       <c r="B13" s="3">
         <v>6</v>
       </c>
-      <c r="C13" s="40"/>
+      <c r="C13" s="39"/>
       <c r="D13" s="3" t="s">
         <v>26</v>
       </c>
@@ -2125,7 +2142,7 @@
       <c r="B17" s="3">
         <v>10</v>
       </c>
-      <c r="C17" s="40" t="s">
+      <c r="C17" s="39" t="s">
         <v>48</v>
       </c>
       <c r="D17" s="3" t="s">
@@ -2307,7 +2324,7 @@
       <c r="B22" s="3">
         <v>15</v>
       </c>
-      <c r="C22" s="40"/>
+      <c r="C22" s="39"/>
       <c r="D22" s="3" t="s">
         <v>64</v>
       </c>
@@ -2486,7 +2503,7 @@
       <c r="B27" s="3">
         <v>20</v>
       </c>
-      <c r="C27" s="40" t="s">
+      <c r="C27" s="39" t="s">
         <v>96</v>
       </c>
       <c r="D27" s="3" t="s">
@@ -2668,7 +2685,7 @@
       <c r="B32" s="3">
         <v>25</v>
       </c>
-      <c r="C32" s="40"/>
+      <c r="C32" s="39"/>
       <c r="D32" s="3" t="s">
         <v>93</v>
       </c>
@@ -2704,7 +2721,7 @@
       <c r="B33" s="3">
         <v>26</v>
       </c>
-      <c r="C33" s="40" t="s">
+      <c r="C33" s="39" t="s">
         <v>97</v>
       </c>
       <c r="D33" s="3" t="s">
@@ -2845,185 +2862,185 @@
       <c r="Y36" s="2"/>
       <c r="Z36" s="2"/>
     </row>
-    <row r="37" spans="1:26" s="58" customFormat="1" ht="123" customHeight="1">
-      <c r="A37" s="51"/>
-      <c r="B37" s="52">
+    <row r="37" spans="1:26" s="47" customFormat="1" ht="123" customHeight="1">
+      <c r="A37" s="40"/>
+      <c r="B37" s="41">
         <v>30</v>
       </c>
-      <c r="C37" s="52"/>
-      <c r="D37" s="52" t="s">
+      <c r="C37" s="41"/>
+      <c r="D37" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="E37" s="53" t="s">
+      <c r="E37" s="42" t="s">
         <v>102</v>
       </c>
-      <c r="F37" s="52" t="s">
+      <c r="F37" s="41" t="s">
         <v>101</v>
       </c>
-      <c r="G37" s="52"/>
-      <c r="H37" s="54"/>
-      <c r="I37" s="55"/>
-      <c r="J37" s="54"/>
-      <c r="K37" s="52"/>
-      <c r="L37" s="56"/>
-      <c r="M37" s="57"/>
-      <c r="N37" s="56"/>
-      <c r="O37" s="57"/>
-      <c r="P37" s="56"/>
-      <c r="Q37" s="57"/>
-      <c r="R37" s="56"/>
-      <c r="S37" s="57"/>
-      <c r="T37" s="56"/>
-      <c r="U37" s="57"/>
-      <c r="V37" s="57"/>
-      <c r="W37" s="57"/>
-      <c r="X37" s="57"/>
-      <c r="Y37" s="57"/>
-      <c r="Z37" s="57"/>
-    </row>
-    <row r="38" spans="1:26" s="66" customFormat="1" ht="124.5" customHeight="1">
-      <c r="A38" s="59"/>
-      <c r="B38" s="60">
+      <c r="G37" s="41"/>
+      <c r="H37" s="43"/>
+      <c r="I37" s="44"/>
+      <c r="J37" s="43"/>
+      <c r="K37" s="41"/>
+      <c r="L37" s="45"/>
+      <c r="M37" s="46"/>
+      <c r="N37" s="45"/>
+      <c r="O37" s="46"/>
+      <c r="P37" s="45"/>
+      <c r="Q37" s="46"/>
+      <c r="R37" s="45"/>
+      <c r="S37" s="46"/>
+      <c r="T37" s="45"/>
+      <c r="U37" s="46"/>
+      <c r="V37" s="46"/>
+      <c r="W37" s="46"/>
+      <c r="X37" s="46"/>
+      <c r="Y37" s="46"/>
+      <c r="Z37" s="46"/>
+    </row>
+    <row r="38" spans="1:26" s="55" customFormat="1" ht="124.5" customHeight="1">
+      <c r="A38" s="48"/>
+      <c r="B38" s="49">
         <v>31</v>
       </c>
-      <c r="C38" s="60"/>
-      <c r="D38" s="60" t="s">
+      <c r="C38" s="49"/>
+      <c r="D38" s="49" t="s">
         <v>111</v>
       </c>
-      <c r="E38" s="61" t="s">
+      <c r="E38" s="50" t="s">
         <v>112</v>
       </c>
-      <c r="F38" s="60" t="s">
+      <c r="F38" s="49" t="s">
         <v>122</v>
       </c>
-      <c r="G38" s="60"/>
-      <c r="H38" s="62"/>
-      <c r="I38" s="63"/>
-      <c r="J38" s="62"/>
-      <c r="K38" s="60"/>
-      <c r="L38" s="64"/>
-      <c r="M38" s="65"/>
-      <c r="N38" s="64"/>
-      <c r="O38" s="65"/>
-      <c r="P38" s="64"/>
-      <c r="Q38" s="65"/>
-      <c r="R38" s="64"/>
-      <c r="S38" s="65"/>
-      <c r="T38" s="64"/>
-      <c r="U38" s="65"/>
-      <c r="V38" s="65"/>
-      <c r="W38" s="65"/>
-      <c r="X38" s="65"/>
-      <c r="Y38" s="65"/>
-      <c r="Z38" s="65"/>
-    </row>
-    <row r="39" spans="1:26" s="58" customFormat="1" ht="141.75" customHeight="1">
-      <c r="A39" s="51"/>
-      <c r="B39" s="52">
+      <c r="G38" s="49"/>
+      <c r="H38" s="51"/>
+      <c r="I38" s="52"/>
+      <c r="J38" s="51"/>
+      <c r="K38" s="49"/>
+      <c r="L38" s="53"/>
+      <c r="M38" s="54"/>
+      <c r="N38" s="53"/>
+      <c r="O38" s="54"/>
+      <c r="P38" s="53"/>
+      <c r="Q38" s="54"/>
+      <c r="R38" s="53"/>
+      <c r="S38" s="54"/>
+      <c r="T38" s="53"/>
+      <c r="U38" s="54"/>
+      <c r="V38" s="54"/>
+      <c r="W38" s="54"/>
+      <c r="X38" s="54"/>
+      <c r="Y38" s="54"/>
+      <c r="Z38" s="54"/>
+    </row>
+    <row r="39" spans="1:26" s="47" customFormat="1" ht="141.75" customHeight="1">
+      <c r="A39" s="40"/>
+      <c r="B39" s="41">
         <v>32</v>
       </c>
-      <c r="C39" s="52"/>
-      <c r="D39" s="52" t="s">
+      <c r="C39" s="41"/>
+      <c r="D39" s="41" t="s">
         <v>113</v>
       </c>
-      <c r="E39" s="53" t="s">
+      <c r="E39" s="42" t="s">
         <v>114</v>
       </c>
-      <c r="F39" s="52" t="s">
+      <c r="F39" s="41" t="s">
         <v>101</v>
       </c>
-      <c r="G39" s="52"/>
-      <c r="H39" s="54"/>
-      <c r="I39" s="55"/>
-      <c r="J39" s="54"/>
-      <c r="K39" s="52"/>
-      <c r="L39" s="56"/>
-      <c r="M39" s="57"/>
-      <c r="N39" s="56"/>
-      <c r="O39" s="57"/>
-      <c r="P39" s="56"/>
-      <c r="Q39" s="57"/>
-      <c r="R39" s="56"/>
-      <c r="S39" s="57"/>
-      <c r="T39" s="56"/>
-      <c r="U39" s="57"/>
-      <c r="V39" s="57"/>
-      <c r="W39" s="57"/>
-      <c r="X39" s="57"/>
-      <c r="Y39" s="57"/>
-      <c r="Z39" s="57"/>
-    </row>
-    <row r="40" spans="1:26" s="58" customFormat="1" ht="139.5" customHeight="1">
-      <c r="A40" s="51"/>
-      <c r="B40" s="52">
+      <c r="G39" s="41"/>
+      <c r="H39" s="43"/>
+      <c r="I39" s="44"/>
+      <c r="J39" s="43"/>
+      <c r="K39" s="41"/>
+      <c r="L39" s="45"/>
+      <c r="M39" s="46"/>
+      <c r="N39" s="45"/>
+      <c r="O39" s="46"/>
+      <c r="P39" s="45"/>
+      <c r="Q39" s="46"/>
+      <c r="R39" s="45"/>
+      <c r="S39" s="46"/>
+      <c r="T39" s="45"/>
+      <c r="U39" s="46"/>
+      <c r="V39" s="46"/>
+      <c r="W39" s="46"/>
+      <c r="X39" s="46"/>
+      <c r="Y39" s="46"/>
+      <c r="Z39" s="46"/>
+    </row>
+    <row r="40" spans="1:26" s="47" customFormat="1" ht="139.5" customHeight="1">
+      <c r="A40" s="40"/>
+      <c r="B40" s="41">
         <v>33</v>
       </c>
-      <c r="C40" s="52"/>
-      <c r="D40" s="52" t="s">
+      <c r="C40" s="41"/>
+      <c r="D40" s="41" t="s">
         <v>115</v>
       </c>
-      <c r="E40" s="53" t="s">
+      <c r="E40" s="42" t="s">
         <v>116</v>
       </c>
-      <c r="F40" s="52" t="s">
+      <c r="F40" s="41" t="s">
         <v>122</v>
       </c>
-      <c r="G40" s="52"/>
-      <c r="H40" s="54"/>
-      <c r="I40" s="55"/>
-      <c r="J40" s="54"/>
-      <c r="K40" s="52"/>
-      <c r="L40" s="56"/>
-      <c r="M40" s="57"/>
-      <c r="N40" s="56"/>
-      <c r="O40" s="57"/>
-      <c r="P40" s="56"/>
-      <c r="Q40" s="57"/>
-      <c r="R40" s="56"/>
-      <c r="S40" s="57"/>
-      <c r="T40" s="56"/>
-      <c r="U40" s="57"/>
-      <c r="V40" s="57"/>
-      <c r="W40" s="57"/>
-      <c r="X40" s="57"/>
-      <c r="Y40" s="57"/>
-      <c r="Z40" s="57"/>
-    </row>
-    <row r="41" spans="1:26" s="58" customFormat="1" ht="184.5" customHeight="1">
-      <c r="A41" s="51"/>
-      <c r="B41" s="52">
+      <c r="G40" s="41"/>
+      <c r="H40" s="43"/>
+      <c r="I40" s="44"/>
+      <c r="J40" s="43"/>
+      <c r="K40" s="41"/>
+      <c r="L40" s="45"/>
+      <c r="M40" s="46"/>
+      <c r="N40" s="45"/>
+      <c r="O40" s="46"/>
+      <c r="P40" s="45"/>
+      <c r="Q40" s="46"/>
+      <c r="R40" s="45"/>
+      <c r="S40" s="46"/>
+      <c r="T40" s="45"/>
+      <c r="U40" s="46"/>
+      <c r="V40" s="46"/>
+      <c r="W40" s="46"/>
+      <c r="X40" s="46"/>
+      <c r="Y40" s="46"/>
+      <c r="Z40" s="46"/>
+    </row>
+    <row r="41" spans="1:26" s="47" customFormat="1" ht="184.5" customHeight="1">
+      <c r="A41" s="40"/>
+      <c r="B41" s="41">
         <v>34</v>
       </c>
-      <c r="C41" s="52"/>
-      <c r="D41" s="52" t="s">
+      <c r="C41" s="41"/>
+      <c r="D41" s="41" t="s">
         <v>117</v>
       </c>
-      <c r="E41" s="53" t="s">
+      <c r="E41" s="42" t="s">
         <v>118</v>
       </c>
-      <c r="F41" s="52" t="s">
+      <c r="F41" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="G41" s="52"/>
-      <c r="H41" s="54"/>
-      <c r="I41" s="55"/>
-      <c r="J41" s="54"/>
-      <c r="K41" s="52"/>
-      <c r="L41" s="56"/>
-      <c r="M41" s="57"/>
-      <c r="N41" s="56"/>
-      <c r="O41" s="57"/>
-      <c r="P41" s="56"/>
-      <c r="Q41" s="57"/>
-      <c r="R41" s="56"/>
-      <c r="S41" s="57"/>
-      <c r="T41" s="56"/>
-      <c r="U41" s="57"/>
-      <c r="V41" s="57"/>
-      <c r="W41" s="57"/>
-      <c r="X41" s="57"/>
-      <c r="Y41" s="57"/>
-      <c r="Z41" s="57"/>
+      <c r="G41" s="41"/>
+      <c r="H41" s="43"/>
+      <c r="I41" s="44"/>
+      <c r="J41" s="43"/>
+      <c r="K41" s="41"/>
+      <c r="L41" s="45"/>
+      <c r="M41" s="46"/>
+      <c r="N41" s="45"/>
+      <c r="O41" s="46"/>
+      <c r="P41" s="45"/>
+      <c r="Q41" s="46"/>
+      <c r="R41" s="45"/>
+      <c r="S41" s="46"/>
+      <c r="T41" s="45"/>
+      <c r="U41" s="46"/>
+      <c r="V41" s="46"/>
+      <c r="W41" s="46"/>
+      <c r="X41" s="46"/>
+      <c r="Y41" s="46"/>
+      <c r="Z41" s="46"/>
     </row>
     <row r="42" spans="1:26" ht="114" customHeight="1">
       <c r="A42" s="11"/>
@@ -3610,12 +3627,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="C6:C7"/>
     <mergeCell ref="T6:T7"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="G6:G7"/>
@@ -3623,9 +3634,15 @@
     <mergeCell ref="L6:L7"/>
     <mergeCell ref="N6:N7"/>
     <mergeCell ref="P6:P7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="C6:C7"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L12:L45 R12:R45 P12:P45 T12:T45 T8:T10 P8:P10 R8:R10 L8:L10 N8:N10 N12:N45">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="R12:R45 P12:P45 T12:T45 T8:T10 P8:P10 R8:R10 L8:L45 N8:N10 N12:N45">
       <formula1>Result</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" sqref="AT11 AH11 AF11 Z11 X11 V11 T11 R11 P11 N11 CJ11 CB11 DJ11:DT11 DH11 DF11 DD11 DB11 CZ11 CX11 CV11 CT11 CR11 CP11 CN11 CL11 CH11 CF11 BZ11 BX11 BV11 BT11 BR11 BP11 BN11 BL11 BJ11 BH11 BF11 BD11 BB11 AZ11 AX11 AV11 AR11 AP11 AN11 AL11 AJ11 AD11 AB11">
